--- a/src/repository/emails.xlsx
+++ b/src/repository/emails.xlsx
@@ -396,38 +396,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>NaN</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,20 +444,23 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +500,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,20 +508,23 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,13 +536,16 @@
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,20 +569,23 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,20 +593,23 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +617,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +641,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,56 +657,71 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
